--- a/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:09:08+00:00</t>
+    <t>2025-10-09T11:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2963,7 +2963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>188</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>212</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>231</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>258</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>288</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>300</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>349</v>
       </c>
@@ -8401,12 +8401,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP54">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:26:42+00:00</t>
+    <t>2025-10-09T11:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:30:09+00:00</t>
+    <t>2025-10-09T11:39:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:39:09+00:00</t>
+    <t>2025-10-09T11:50:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/dev/fhir-ig/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T11:50:35+00:00</t>
+    <t>2025-10-15T08:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
